--- a/data/Nabers_5_Star.xlsx
+++ b/data/Nabers_5_Star.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashut\co-perform\Done_Archivede_future-improve\Nabers_calculator\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashut\co-perform\Git_repo\Nabers_calculator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74B1AEF-4812-455E-89ED-EAE591DA3042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CAF676-6BD6-435B-AA81-20FE6BD8055E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10392" yWindow="3360" windowWidth="8652" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,10 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>Target Max Electricity kWh per anum</t>
+    <t>Star Rating</t>
   </si>
   <si>
-    <t>Star Rating</t>
+    <t>emissions</t>
   </si>
 </sst>
 </file>
@@ -74,7 +74,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,10 +358,13 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -371,10 +374,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -385,7 +388,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="1">
-        <v>40612</v>
+        <v>44267.1</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -399,7 +402,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="1">
-        <v>49464</v>
+        <v>53915.8</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -413,7 +416,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="1">
-        <v>58316</v>
+        <v>63564.6</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -427,7 +430,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="1">
-        <v>81224</v>
+        <v>88534.3</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -441,7 +444,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="1">
-        <v>98928</v>
+        <v>107831.7</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -455,7 +458,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="1">
-        <v>116632</v>
+        <v>127129.1</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -469,7 +472,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="1">
-        <v>121836</v>
+        <v>132801.4</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -483,7 +486,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="1">
-        <v>148392</v>
+        <v>161747.5</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -497,7 +500,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="1">
-        <v>174948</v>
+        <v>190693.7</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -511,7 +514,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="1">
-        <v>162448</v>
+        <v>177068.5</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -525,7 +528,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="1">
-        <v>197856</v>
+        <v>215663.4</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -539,7 +542,7 @@
         <v>60</v>
       </c>
       <c r="C13" s="1">
-        <v>233264</v>
+        <v>254258.3</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -553,7 +556,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="1">
-        <v>203060</v>
+        <v>221335.6</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -567,7 +570,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="1">
-        <v>247320</v>
+        <v>269579.2</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -581,7 +584,7 @@
         <v>60</v>
       </c>
       <c r="C16" s="1">
-        <v>291580</v>
+        <v>317822.8</v>
       </c>
       <c r="D16">
         <v>5</v>
